--- a/SEIR_2_wave/Matlab/data/raw_data/vakcinacia_priebeh.xlsx
+++ b/SEIR_2_wave/Matlab/data/raw_data/vakcinacia_priebeh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\Matlab\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C91D90-484B-4816-882A-35BD26A797C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DED6B92-38F0-478C-8402-F01C5A05F08F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{06148743-65D2-47DB-BAEA-72E1144F2ADB}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>19/3/2021</t>
   </si>
   <si>
-    <t>Fazy vakcinacie: aktualne 4.</t>
+    <t>Fazy vakcinacie: aktualne c4.</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
